--- a/plots/basic_stats/two_var_stats/allmus_country_name_vs_region_name-PC.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_country_name_vs_region_name-PC.xlsx
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.68</v>
+        <v>6.608</v>
       </c>
       <c r="G2">
-        <v>9.907</v>
+        <v>9.911</v>
       </c>
       <c r="H2">
-        <v>7.159</v>
+        <v>7.589</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>3.256</v>
       </c>
       <c r="J2">
-        <v>7.966</v>
+        <v>7.781</v>
       </c>
       <c r="K2">
-        <v>14.419</v>
+        <v>14.101</v>
       </c>
       <c r="L2">
-        <v>13.587</v>
+        <v>13.455</v>
       </c>
       <c r="M2">
-        <v>6.957</v>
+        <v>6.775</v>
       </c>
       <c r="N2">
-        <v>6.781</v>
+        <v>6.871</v>
       </c>
       <c r="O2">
-        <v>76.456</v>
+        <v>76.34699999999999</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.445</v>
+        <v>2.562</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.445</v>
+        <v>2.562</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>14.948</v>
+        <v>14.891</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.948</v>
+        <v>14.891</v>
       </c>
     </row>
     <row r="5">
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.151</v>
+        <v>6.201</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.151</v>
+        <v>6.201</v>
       </c>
     </row>
     <row r="6">
@@ -640,43 +640,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.445</v>
+        <v>2.562</v>
       </c>
       <c r="D6">
-        <v>14.948</v>
+        <v>14.891</v>
       </c>
       <c r="E6">
-        <v>6.151</v>
+        <v>6.201</v>
       </c>
       <c r="F6">
-        <v>6.68</v>
+        <v>6.608</v>
       </c>
       <c r="G6">
-        <v>9.907</v>
+        <v>9.911</v>
       </c>
       <c r="H6">
-        <v>7.159</v>
+        <v>7.589</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>3.256</v>
       </c>
       <c r="J6">
-        <v>7.966</v>
+        <v>7.781</v>
       </c>
       <c r="K6">
-        <v>14.419</v>
+        <v>14.101</v>
       </c>
       <c r="L6">
-        <v>13.587</v>
+        <v>13.455</v>
       </c>
       <c r="M6">
-        <v>6.957</v>
+        <v>6.775</v>
       </c>
       <c r="N6">
-        <v>6.781</v>
+        <v>6.871</v>
       </c>
       <c r="O6">
-        <v>100</v>
+        <v>100.001</v>
       </c>
     </row>
   </sheetData>
